--- a/meja/src/test/java/com/dua3/meja/text/FormatTest.xlsx
+++ b/meja/src/test/java/com/dua3/meja/text/FormatTest.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="18060" windowHeight="11130" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="18060" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="NumberFormat" sheetId="2" r:id="rId1"/>
     <sheet name="DateFormat" sheetId="1" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>short user defined format</t>
   </si>
@@ -103,6 +102,30 @@
   </si>
   <si>
     <t>#IGNORE#</t>
+  </si>
+  <si>
+    <t>Note that this workbook is using the german locale, so the formatting may look unusual.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#IGNORE#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> conversion of custom formats is not yet implemented</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -116,7 +139,7 @@
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +153,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,11 +199,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -171,6 +223,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -472,11 +531,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -499,109 +556,122 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>1.2344999999999999</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1.2354000000000001</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8">
-        <v>1.2356</v>
+        <v>1.2354000000000001</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="8">
-        <v>1.2343999999999999</v>
+        <v>1.2356</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="8">
-        <v>1.2345999999999999</v>
+        <v>1.2343999999999999</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.2345999999999999</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B9" s="9">
         <v>1.25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>1234567.8899999999</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1234567.8899999999</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -609,15 +679,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -634,70 +703,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42795</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
+    <row r="2" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>42796</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42795</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42796</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3">
         <v>42797</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>42798</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
+      <c r="D6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>